--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_8_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_8_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38072.98197592735</v>
+        <v>7576523.413209545</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38072.98197592735</v>
+        <v>7576523.413209545</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8605.954239959237</v>
+        <v>518987.8084537693</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8605.954239959237</v>
+        <v>518987.8084537693</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1188776017.946838</v>
+        <v>48115086.93457418</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9690.670588335191</v>
+        <v>1051857.061306106</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18897.820431669</v>
+        <v>2027874.267563867</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28104.9702750028</v>
+        <v>3003891.473821628</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37894.0294334364</v>
+        <v>3981438.052169118</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47603.57990499857</v>
+        <v>4943162.401830052</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>57235.87190429275</v>
+        <v>5918881.116680092</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66868.16390358692</v>
+        <v>6894599.83153013</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>77584.22403714556</v>
+        <v>7914558.517399374</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>88148.17869262439</v>
+        <v>8815890.329870433</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>98845.43304308955</v>
+        <v>9743748.781643469</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>108820.2161021236</v>
+        <v>10719765.98790123</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>118407.3943126729</v>
+        <v>11679960.96547213</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>128074.0812100908</v>
+        <v>12655978.1717299</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>137876.0901627613</v>
+        <v>13614451.61587066</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>147678.0991154332</v>
+        <v>14572925.06001128</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>318.0000000001242</v>
@@ -27055,7 +27055,7 @@
         <v>30.99999999998857</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,16 +27147,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>251.0000000000008</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
